--- a/docs/Книга1.xlsx
+++ b/docs/Книга1.xlsx
@@ -453,7 +453,7 @@
   <dimension ref="A2:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
